--- a/medicine/Psychotrope/Brasserie_Deseveaux/Brasserie_Deseveaux.xlsx
+++ b/medicine/Psychotrope/Brasserie_Deseveaux/Brasserie_Deseveaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Deseveaux est une brasserie artisanale et familiale belge située dans la commune de Boussu en province du Hainaut. Elle a la particularité de produire des bières composées de céréales originales : la Sarazen au sarrasin et l'Avena à l'avoine.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La bière Sarazen a été créée en mai 2010 par Sébastien Deseveaux, ingénieur en agroalimentaire qui fut maître-brasseur à Louvain puis en Bretagne. Cette bière blonde est brassée à base de sarrasin ou blé noir.
-La brasserie est installée dans une ancienne ferme appelée localement la ferme rose, datée de 1821 et située à Boussu rue d'Hanneton. Le Hanneton est un petit ruisseau coulant derrière la brasserie dont l'eau de qualité est utilisée pendant le brassage. Cette vaste ferme appartenait à l'oncle de Sébastien Deseveaux qui l'achète en 2008 puis la transforme afin d'y installer une brasserie qui ouvre en 2015[1],[2],[3]. La grande cour intérieure comprenant un espace vert est utilisée lors d'événements ponctuels. La production annuelle avoisine les 1000 hl mais les nouvelles installations devraient permettre dans l'avenir une production annuelle estimée à 2 500 hl[2].
+La brasserie est installée dans une ancienne ferme appelée localement la ferme rose, datée de 1821 et située à Boussu rue d'Hanneton. Le Hanneton est un petit ruisseau coulant derrière la brasserie dont l'eau de qualité est utilisée pendant le brassage. Cette vaste ferme appartenait à l'oncle de Sébastien Deseveaux qui l'achète en 2008 puis la transforme afin d'y installer une brasserie qui ouvre en 2015. La grande cour intérieure comprenant un espace vert est utilisée lors d'événements ponctuels. La production annuelle avoisine les 1000 hl mais les nouvelles installations devraient permettre dans l'avenir une production annuelle estimée à 2 500 hl.
 </t>
         </is>
       </c>
@@ -544,20 +558,22 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bières originales de la brasserie sont reprises comme Belgian Beer of Wallonia (BBW), protection accordée par l'Agence wallonne pour la promotion d'une agriculture de qualité (APAQ-W).
 Les bières sont de fermentation haute et refermentées en bouteilles.
 Sarazen, une bière blonde au sarrasin titrant 6,5 % en volume d'alcool.
 Sarazen Bio, une bière blonde au sarrasin issu de culture biologique titrant 6,5 % en volume d'alcool.
 Avena, une bière blonde de type bière de saison à l’avoine et au malt d’orge titrant 5,5 % en volume d'alcool.
-Avena Bio, une bière blonde de type bière de saison à l’avoine et au malt d’orge issu de culture biologique titrant 5,5 % en volume d'alcool[4].
+Avena Bio, une bière blonde de type bière de saison à l’avoine et au malt d’orge issu de culture biologique titrant 5,5 % en volume d'alcool.
 Sarazen Triple, une bière blonde au sarrasin titrant 8,5 % en volume d'alcool.
 Sarazen Brune, une bière brune au sarrasin, seigle et malt d'orge titrant 8 % en volume d'alcool.
 Sarazen Brune Bio, une bière brune au sarrasin, seigle et malt d'orge titrant 8 % en volume d'alcool.
-Blanche de Boussu, une bière blanche au malt d'orge, malt de blé et avoine titrant 4,8 % en volume d'alcool[5].
+Blanche de Boussu, une bière blanche au malt d'orge, malt de blé et avoine titrant 4,8 % en volume d'alcool.
 Sarazen de Noël, une bière au sarrasin titrant 9 % en volume d'alcool.
-Certaines de ces bières ont remporté des prix telles que la Sarazen Brune en 2016 lors de la troisième édition du Best BBW[6] et l'Avena à deux occasions en 2018 et 2019 lors du Brussels Beer Challenge[7] qui y reçoit la médaille d'or en 2016[3].
+Certaines de ces bières ont remporté des prix telles que la Sarazen Brune en 2016 lors de la troisième édition du Best BBW et l'Avena à deux occasions en 2018 et 2019 lors du Brussels Beer Challenge qui y reçoit la médaille d'or en 2016.
 </t>
         </is>
       </c>
@@ -586,7 +602,9 @@
           <t>Sources et liens externes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Site officiel de la brasserie
 « BRASSERIE DESEVEAUX - Producteur dans le Hainaut », sur Hainaut Terre de Goûts (consulté le 15 octobre 2020)
